--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,6 +960,1477 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112027285</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>752324.380454565</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7092940.601741337</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112027301</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>752329.5007247855</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7092948.539329411</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112027290</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>752268.0515137122</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7093028.99707507</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112027371</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>752290.4346396544</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7092949.368184029</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112027354</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>752295.4558510378</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7093002.441773332</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112027288</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>752281.5439615413</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7092999.105565066</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112027356</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>752324.3875685094</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7092929.537413944</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112027360</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>752296.5637017922</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7093005.186741289</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ca 10 fruktkroppar</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112027366</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>752248.2058430372</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7093192.473407456</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112027322</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>752287.2680111516</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7093027.007953994</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112027355</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>752324.380454565</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7092940.601741337</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112027339</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>752300.1425363926</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7092944.398308391</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112027275</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Trollberget, Vb</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>752296.0450195302</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7092962.213766729</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027285</v>
+        <v>112027356</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,25 +974,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752324.380454565</v>
+        <v>752324.3875685094</v>
       </c>
       <c r="R4" t="n">
-        <v>7092940.601741337</v>
+        <v>7092929.537413944</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027301</v>
+        <v>112027366</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,21 +1090,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752329.5007247855</v>
+        <v>752248.2058430372</v>
       </c>
       <c r="R5" t="n">
-        <v>7092948.539329411</v>
+        <v>7093192.473407456</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027290</v>
+        <v>112027354</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752268.0515137122</v>
+        <v>752295.4558510378</v>
       </c>
       <c r="R6" t="n">
-        <v>7093028.99707507</v>
+        <v>7093002.441773332</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,11 +1272,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1415,7 +1410,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027354</v>
+        <v>112027339</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1455,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752295.4558510378</v>
+        <v>752300.1425363926</v>
       </c>
       <c r="R8" t="n">
-        <v>7093002.441773332</v>
+        <v>7092944.398308391</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,6 +1496,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112027288</v>
+        <v>112027285</v>
       </c>
       <c r="B9" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,25 +1539,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1567,10 +1567,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752281.5439615413</v>
+        <v>752324.380454565</v>
       </c>
       <c r="R9" t="n">
-        <v>7092999.105565066</v>
+        <v>7092940.601741337</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112027356</v>
+        <v>112027288</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,21 +1655,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752324.3875685094</v>
+        <v>752281.5439615413</v>
       </c>
       <c r="R10" t="n">
-        <v>7092929.537413944</v>
+        <v>7092999.105565066</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027366</v>
+        <v>112027355</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,25 +1880,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752248.2058430372</v>
+        <v>752324.380454565</v>
       </c>
       <c r="R12" t="n">
-        <v>7093192.473407456</v>
+        <v>7092940.601741337</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112027322</v>
+        <v>112027290</v>
       </c>
       <c r="B13" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1996,21 +1996,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>752287.2680111516</v>
+        <v>752268.0515137122</v>
       </c>
       <c r="R13" t="n">
-        <v>7093027.007953994</v>
+        <v>7093028.99707507</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2066,6 +2066,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2092,10 +2097,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027355</v>
+        <v>112027275</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,25 +2109,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2132,10 +2137,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752324.380454565</v>
+        <v>752296.0450195302</v>
       </c>
       <c r="R14" t="n">
-        <v>7092940.601741337</v>
+        <v>7092962.213766729</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,10 +2209,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027339</v>
+        <v>112027301</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2216,25 +2221,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2244,10 +2249,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752300.1425363926</v>
+        <v>752329.5007247855</v>
       </c>
       <c r="R15" t="n">
-        <v>7092944.398308391</v>
+        <v>7092948.539329411</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2290,11 +2295,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,10 +2321,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027275</v>
+        <v>112027322</v>
       </c>
       <c r="B16" t="n">
-        <v>90652</v>
+        <v>90689</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,21 +2337,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752296.0450195302</v>
+        <v>752287.2680111516</v>
       </c>
       <c r="R16" t="n">
-        <v>7092962.213766729</v>
+        <v>7093027.007953994</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027356</v>
+        <v>112027322</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,25 +974,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752324.3875685094</v>
+        <v>752287.2680111516</v>
       </c>
       <c r="R4" t="n">
-        <v>7092929.537413944</v>
+        <v>7093027.007953994</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027366</v>
+        <v>112027339</v>
       </c>
       <c r="B5" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,25 +1086,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752248.2058430372</v>
+        <v>752300.1425363926</v>
       </c>
       <c r="R5" t="n">
-        <v>7093192.473407456</v>
+        <v>7092944.398308391</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1160,6 +1160,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1186,10 +1191,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027354</v>
+        <v>112027371</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1203,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1226,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752295.4558510378</v>
+        <v>752290.4346396544</v>
       </c>
       <c r="R6" t="n">
-        <v>7093002.441773332</v>
+        <v>7092949.368184029</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,10 +1303,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112027371</v>
+        <v>112027301</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1314,21 +1319,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1338,10 +1343,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752290.4346396544</v>
+        <v>752329.5007247855</v>
       </c>
       <c r="R7" t="n">
-        <v>7092949.368184029</v>
+        <v>7092948.539329411</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1410,7 +1415,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027339</v>
+        <v>112027356</v>
       </c>
       <c r="B8" t="n">
         <v>90666</v>
@@ -1450,10 +1455,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752300.1425363926</v>
+        <v>752324.3875685094</v>
       </c>
       <c r="R8" t="n">
-        <v>7092944.398308391</v>
+        <v>7092929.537413944</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1496,11 +1501,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112027285</v>
+        <v>112027275</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,21 +1543,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1567,10 +1567,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752324.380454565</v>
+        <v>752296.0450195302</v>
       </c>
       <c r="R9" t="n">
-        <v>7092940.601741337</v>
+        <v>7092962.213766729</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112027288</v>
+        <v>112027366</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1651,25 +1651,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752281.5439615413</v>
+        <v>752248.2058430372</v>
       </c>
       <c r="R10" t="n">
-        <v>7092999.105565066</v>
+        <v>7093192.473407456</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112027360</v>
+        <v>112027288</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1763,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752296.5637017922</v>
+        <v>752281.5439615413</v>
       </c>
       <c r="R11" t="n">
-        <v>7093005.186741289</v>
+        <v>7092999.105565066</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1837,11 +1837,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1868,10 +1863,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027355</v>
+        <v>112027290</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,25 +1875,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1908,10 +1903,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752324.380454565</v>
+        <v>752268.0515137122</v>
       </c>
       <c r="R12" t="n">
-        <v>7092940.601741337</v>
+        <v>7093028.99707507</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1954,6 +1949,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1980,10 +1980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112027290</v>
+        <v>112027285</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1996,21 +1996,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>752268.0515137122</v>
+        <v>752324.380454565</v>
       </c>
       <c r="R13" t="n">
-        <v>7093028.99707507</v>
+        <v>7092940.601741337</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2066,11 +2066,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2097,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027275</v>
+        <v>112027355</v>
       </c>
       <c r="B14" t="n">
-        <v>90652</v>
+        <v>90666</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2109,25 +2104,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2137,10 +2132,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752296.0450195302</v>
+        <v>752324.380454565</v>
       </c>
       <c r="R14" t="n">
-        <v>7092962.213766729</v>
+        <v>7092940.601741337</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2209,10 +2204,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027301</v>
+        <v>112027354</v>
       </c>
       <c r="B15" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2221,25 +2216,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2249,10 +2244,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752329.5007247855</v>
+        <v>752295.4558510378</v>
       </c>
       <c r="R15" t="n">
-        <v>7092948.539329411</v>
+        <v>7093002.441773332</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2321,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027322</v>
+        <v>112027360</v>
       </c>
       <c r="B16" t="n">
-        <v>90689</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,21 +2332,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2361,10 +2356,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752287.2680111516</v>
+        <v>752296.5637017922</v>
       </c>
       <c r="R16" t="n">
-        <v>7093027.007953994</v>
+        <v>7093005.186741289</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2407,6 +2402,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027322</v>
+        <v>112027339</v>
       </c>
       <c r="B4" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,25 +974,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752287.2680111516</v>
+        <v>752300.1425363926</v>
       </c>
       <c r="R4" t="n">
-        <v>7093027.007953994</v>
+        <v>7092944.398308391</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1048,6 +1048,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1074,7 +1079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027339</v>
+        <v>112027354</v>
       </c>
       <c r="B5" t="n">
         <v>90666</v>
@@ -1114,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752300.1425363926</v>
+        <v>752295.4558510378</v>
       </c>
       <c r="R5" t="n">
-        <v>7092944.398308391</v>
+        <v>7093002.441773332</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1160,11 +1165,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1191,10 +1191,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027371</v>
+        <v>112027301</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1207,21 +1207,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752290.4346396544</v>
+        <v>752329.5007247855</v>
       </c>
       <c r="R6" t="n">
-        <v>7092949.368184029</v>
+        <v>7092948.539329411</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112027301</v>
+        <v>112027355</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1315,25 +1315,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752329.5007247855</v>
+        <v>752324.380454565</v>
       </c>
       <c r="R7" t="n">
-        <v>7092948.539329411</v>
+        <v>7092940.601741337</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027356</v>
+        <v>112027288</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1431,21 +1431,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752324.3875685094</v>
+        <v>752281.5439615413</v>
       </c>
       <c r="R8" t="n">
-        <v>7092929.537413944</v>
+        <v>7092999.105565066</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112027275</v>
+        <v>112027360</v>
       </c>
       <c r="B9" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,21 +1543,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1567,10 +1567,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752296.0450195302</v>
+        <v>752296.5637017922</v>
       </c>
       <c r="R9" t="n">
-        <v>7092962.213766729</v>
+        <v>7093005.186741289</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1613,6 +1613,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1639,10 +1644,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112027366</v>
+        <v>112027285</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,21 +1660,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752248.2058430372</v>
+        <v>752324.380454565</v>
       </c>
       <c r="R10" t="n">
-        <v>7093192.473407456</v>
+        <v>7092940.601741337</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1751,10 +1756,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112027288</v>
+        <v>112027275</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1763,25 +1768,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1791,10 +1796,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752281.5439615413</v>
+        <v>752296.0450195302</v>
       </c>
       <c r="R11" t="n">
-        <v>7092999.105565066</v>
+        <v>7092962.213766729</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1863,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027290</v>
+        <v>112027356</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1875,25 +1880,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1903,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752268.0515137122</v>
+        <v>752324.3875685094</v>
       </c>
       <c r="R12" t="n">
-        <v>7093028.99707507</v>
+        <v>7092929.537413944</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1949,11 +1954,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1980,10 +1980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112027285</v>
+        <v>112027290</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1996,21 +1996,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>752324.380454565</v>
+        <v>752268.0515137122</v>
       </c>
       <c r="R13" t="n">
-        <v>7092940.601741337</v>
+        <v>7093028.99707507</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2066,6 +2066,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2092,10 +2097,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027355</v>
+        <v>112027322</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,25 +2109,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2132,10 +2137,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752324.380454565</v>
+        <v>752287.2680111516</v>
       </c>
       <c r="R14" t="n">
-        <v>7092940.601741337</v>
+        <v>7093027.007953994</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,10 +2209,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027354</v>
+        <v>112027366</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2216,25 +2221,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2244,10 +2249,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752295.4558510378</v>
+        <v>752248.2058430372</v>
       </c>
       <c r="R15" t="n">
-        <v>7093002.441773332</v>
+        <v>7093192.473407456</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2316,7 +2321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027360</v>
+        <v>112027371</v>
       </c>
       <c r="B16" t="n">
         <v>90660</v>
@@ -2356,10 +2361,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752296.5637017922</v>
+        <v>752290.4346396544</v>
       </c>
       <c r="R16" t="n">
-        <v>7093005.186741289</v>
+        <v>7092949.368184029</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2402,11 +2407,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027339</v>
+        <v>112027301</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,25 +974,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752300.1425363926</v>
+        <v>752330</v>
       </c>
       <c r="R4" t="n">
-        <v>7092944.398308391</v>
+        <v>7092949</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,24 +1035,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1079,7 +1064,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027354</v>
+        <v>112027355</v>
       </c>
       <c r="B5" t="n">
         <v>90666</v>
@@ -1119,10 +1104,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752295.4558510378</v>
+        <v>752324</v>
       </c>
       <c r="R5" t="n">
-        <v>7093002.441773332</v>
+        <v>7092941</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1152,19 +1137,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1191,10 +1166,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027301</v>
+        <v>112027371</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1207,21 +1182,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1231,10 +1206,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752329.5007247855</v>
+        <v>752290</v>
       </c>
       <c r="R6" t="n">
-        <v>7092948.539329411</v>
+        <v>7092949</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,19 +1239,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,7 +1268,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112027355</v>
+        <v>112027339</v>
       </c>
       <c r="B7" t="n">
         <v>90666</v>
@@ -1343,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752324.380454565</v>
+        <v>752300</v>
       </c>
       <c r="R7" t="n">
-        <v>7092940.601741337</v>
+        <v>7092944</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,19 +1341,14 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1415,10 +1375,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027288</v>
+        <v>112027275</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,25 +1387,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1455,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752281.5439615413</v>
+        <v>752296</v>
       </c>
       <c r="R8" t="n">
-        <v>7092999.105565066</v>
+        <v>7092962</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1488,19 +1448,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112027360</v>
+        <v>112027356</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,25 +1489,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1567,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752296.5637017922</v>
+        <v>752324</v>
       </c>
       <c r="R9" t="n">
-        <v>7093005.186741289</v>
+        <v>7092930</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1600,24 +1550,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1684,10 +1619,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752324.380454565</v>
+        <v>752324</v>
       </c>
       <c r="R10" t="n">
-        <v>7092940.601741337</v>
+        <v>7092941</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1717,19 +1652,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1756,10 +1681,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112027275</v>
+        <v>112027288</v>
       </c>
       <c r="B11" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1768,25 +1693,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1796,10 +1721,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752296.0450195302</v>
+        <v>752282</v>
       </c>
       <c r="R11" t="n">
-        <v>7092962.213766729</v>
+        <v>7092999</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1829,19 +1754,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1868,7 +1783,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027356</v>
+        <v>112027354</v>
       </c>
       <c r="B12" t="n">
         <v>90666</v>
@@ -1908,10 +1823,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752324.3875685094</v>
+        <v>752295</v>
       </c>
       <c r="R12" t="n">
-        <v>7092929.537413944</v>
+        <v>7093002</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1941,19 +1856,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1980,10 +1885,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112027290</v>
+        <v>112027322</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1996,21 +1901,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2020,10 +1925,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>752268.0515137122</v>
+        <v>752287</v>
       </c>
       <c r="R13" t="n">
-        <v>7093028.99707507</v>
+        <v>7093027</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2053,24 +1958,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2097,10 +1987,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027322</v>
+        <v>112027290</v>
       </c>
       <c r="B14" t="n">
-        <v>90689</v>
+        <v>90658</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2113,21 +2003,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2137,10 +2027,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752287.2680111516</v>
+        <v>752268</v>
       </c>
       <c r="R14" t="n">
-        <v>7093027.007953994</v>
+        <v>7093029</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2170,19 +2060,14 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2209,7 +2094,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027366</v>
+        <v>112027360</v>
       </c>
       <c r="B15" t="n">
         <v>90660</v>
@@ -2249,10 +2134,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752248.2058430372</v>
+        <v>752297</v>
       </c>
       <c r="R15" t="n">
-        <v>7093192.473407456</v>
+        <v>7093005</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2282,19 +2167,14 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2321,7 +2201,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027371</v>
+        <v>112027366</v>
       </c>
       <c r="B16" t="n">
         <v>90660</v>
@@ -2361,10 +2241,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752290.4346396544</v>
+        <v>752248</v>
       </c>
       <c r="R16" t="n">
-        <v>7092949.368184029</v>
+        <v>7093192</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2394,19 +2274,9 @@
           <t>2023-09-10</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027301</v>
+        <v>112027360</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -978,21 +978,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752330</v>
+        <v>752297</v>
       </c>
       <c r="R4" t="n">
-        <v>7092949</v>
+        <v>7093005</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,6 +1038,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1064,10 +1069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027355</v>
+        <v>112027301</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>90792</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1076,25 +1081,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1104,10 +1109,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752324</v>
+        <v>752330</v>
       </c>
       <c r="R5" t="n">
-        <v>7092941</v>
+        <v>7092949</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1166,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027371</v>
+        <v>112027366</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1206,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752290</v>
+        <v>752248</v>
       </c>
       <c r="R6" t="n">
-        <v>7092949</v>
+        <v>7093192</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1268,10 +1273,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112027339</v>
+        <v>112027356</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1308,10 +1313,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752300</v>
+        <v>752324</v>
       </c>
       <c r="R7" t="n">
-        <v>7092944</v>
+        <v>7092930</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,11 +1349,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1375,10 +1375,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027275</v>
+        <v>112027355</v>
       </c>
       <c r="B8" t="n">
-        <v>90652</v>
+        <v>90800</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1387,25 +1387,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752296</v>
+        <v>752324</v>
       </c>
       <c r="R8" t="n">
-        <v>7092962</v>
+        <v>7092941</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112027356</v>
+        <v>112027288</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>90812</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,21 +1493,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752324</v>
+        <v>752282</v>
       </c>
       <c r="R9" t="n">
-        <v>7092930</v>
+        <v>7092999</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112027285</v>
+        <v>112027339</v>
       </c>
       <c r="B10" t="n">
-        <v>90682</v>
+        <v>90800</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1591,25 +1591,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752324</v>
+        <v>752300</v>
       </c>
       <c r="R10" t="n">
-        <v>7092941</v>
+        <v>7092944</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1655,6 +1655,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1681,10 +1686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112027288</v>
+        <v>112027354</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1697,21 +1702,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1721,10 +1726,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752282</v>
+        <v>752295</v>
       </c>
       <c r="R11" t="n">
-        <v>7092999</v>
+        <v>7093002</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1783,10 +1788,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027354</v>
+        <v>112027371</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90794</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1795,25 +1800,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1823,10 +1828,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752295</v>
+        <v>752290</v>
       </c>
       <c r="R12" t="n">
-        <v>7093002</v>
+        <v>7092949</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1888,7 +1893,7 @@
         <v>112027322</v>
       </c>
       <c r="B13" t="n">
-        <v>90689</v>
+        <v>90823</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,10 +1992,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027290</v>
+        <v>112027285</v>
       </c>
       <c r="B14" t="n">
-        <v>90658</v>
+        <v>90816</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2003,21 +2008,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2027,10 +2032,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752268</v>
+        <v>752324</v>
       </c>
       <c r="R14" t="n">
-        <v>7093029</v>
+        <v>7092941</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2063,11 +2068,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2094,10 +2094,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027360</v>
+        <v>112027290</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>90792</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2110,21 +2110,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752297</v>
+        <v>752268</v>
       </c>
       <c r="R15" t="n">
-        <v>7093005</v>
+        <v>7093029</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ca 10 fruktkroppar</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2201,10 +2201,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027366</v>
+        <v>112027275</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2217,21 +2217,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752248</v>
+        <v>752296</v>
       </c>
       <c r="R16" t="n">
-        <v>7093192</v>
+        <v>7092962</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2300,6 +2300,2970 @@
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112313640</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>752332</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7092935</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Gamla</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112313598</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>752290</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7092999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112313603</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>752279</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7093021</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112313577</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>752264</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7093108</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112313652</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>752295</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7092957</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112313661</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>752277</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7093005</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112313638</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>752284</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7093018</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112313651</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>752274</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7092986</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112313709</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90794</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>752305</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7093005</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112313643</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>752256</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7093214</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112313619</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>752282</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7092952</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar. Bild m svampkorg som jämförelse</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112313650</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>752299</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7093008</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112313678</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>752289</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7092955</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112313674</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>752277</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7093024</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112313673</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>752297</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7093006</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112313689</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>752279</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7093000</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112313599</v>
+      </c>
+      <c r="B33" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>752292</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7092955</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112313690</v>
+      </c>
+      <c r="B34" t="n">
+        <v>88126</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1593</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Lakritsmusseron</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tricholoma apium</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>752297</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7092955</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112313676</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>752287</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7093003</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112313672</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>752259</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7093047</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112313677</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>752302</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7092980</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112313708</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>752331</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7092930</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112313645</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>752264</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7093137</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112313614</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>752292</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7092968</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112313707</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>752268</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7093171</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112313675</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>752286</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7093001</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112313671</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>752274</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7093145</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027360</v>
+        <v>112027290</v>
       </c>
       <c r="B4" t="n">
-        <v>90794</v>
+        <v>90806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -978,21 +978,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752297</v>
+        <v>752268</v>
       </c>
       <c r="R4" t="n">
-        <v>7093005</v>
+        <v>7093029</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ca 10 fruktkroppar</t>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1069,10 +1069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027301</v>
+        <v>112027355</v>
       </c>
       <c r="B5" t="n">
-        <v>90792</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,25 +1081,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752330</v>
+        <v>752324</v>
       </c>
       <c r="R5" t="n">
-        <v>7092949</v>
+        <v>7092941</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027366</v>
+        <v>112027285</v>
       </c>
       <c r="B6" t="n">
-        <v>90794</v>
+        <v>90830</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,21 +1187,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752248</v>
+        <v>752324</v>
       </c>
       <c r="R6" t="n">
-        <v>7093192</v>
+        <v>7092941</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112027356</v>
+        <v>112027275</v>
       </c>
       <c r="B7" t="n">
         <v>90800</v>
@@ -1285,25 +1285,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752324</v>
+        <v>752296</v>
       </c>
       <c r="R7" t="n">
-        <v>7092930</v>
+        <v>7092962</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027355</v>
+        <v>112027339</v>
       </c>
       <c r="B8" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752324</v>
+        <v>752300</v>
       </c>
       <c r="R8" t="n">
-        <v>7092941</v>
+        <v>7092944</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1451,6 +1451,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1477,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112027288</v>
+        <v>112027356</v>
       </c>
       <c r="B9" t="n">
-        <v>90812</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,21 +1498,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1522,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>752282</v>
+        <v>752324</v>
       </c>
       <c r="R9" t="n">
-        <v>7092999</v>
+        <v>7092930</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1579,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112027339</v>
+        <v>112027366</v>
       </c>
       <c r="B10" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1591,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1619,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752300</v>
+        <v>752248</v>
       </c>
       <c r="R10" t="n">
-        <v>7092944</v>
+        <v>7093192</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1655,11 +1660,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1686,10 +1686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112027354</v>
+        <v>112027371</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1698,25 +1698,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752295</v>
+        <v>752290</v>
       </c>
       <c r="R11" t="n">
-        <v>7093002</v>
+        <v>7092949</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027371</v>
+        <v>112027288</v>
       </c>
       <c r="B12" t="n">
-        <v>90794</v>
+        <v>90826</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1800,25 +1800,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1828,10 +1828,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752290</v>
+        <v>752282</v>
       </c>
       <c r="R12" t="n">
-        <v>7092949</v>
+        <v>7092999</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112027322</v>
+        <v>112027301</v>
       </c>
       <c r="B13" t="n">
-        <v>90823</v>
+        <v>90806</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>752287</v>
+        <v>752330</v>
       </c>
       <c r="R13" t="n">
-        <v>7093027</v>
+        <v>7092949</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027285</v>
+        <v>112027354</v>
       </c>
       <c r="B14" t="n">
-        <v>90816</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752324</v>
+        <v>752295</v>
       </c>
       <c r="R14" t="n">
-        <v>7092941</v>
+        <v>7093002</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027290</v>
+        <v>112027360</v>
       </c>
       <c r="B15" t="n">
-        <v>90792</v>
+        <v>90808</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2110,21 +2110,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752268</v>
+        <v>752297</v>
       </c>
       <c r="R15" t="n">
-        <v>7093029</v>
+        <v>7093005</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2201,10 +2201,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027275</v>
+        <v>112027322</v>
       </c>
       <c r="B16" t="n">
-        <v>90786</v>
+        <v>90837</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2217,21 +2217,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752296</v>
+        <v>752287</v>
       </c>
       <c r="R16" t="n">
-        <v>7092962</v>
+        <v>7093027</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112313640</v>
+        <v>112313708</v>
       </c>
       <c r="B17" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2315,47 +2315,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>752332</v>
+        <v>752331</v>
       </c>
       <c r="R17" t="n">
-        <v>7092935</v>
+        <v>7092930</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2388,11 +2379,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Gamla</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2419,10 +2405,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112313598</v>
+        <v>112313619</v>
       </c>
       <c r="B18" t="n">
-        <v>90812</v>
+        <v>90837</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2431,38 +2417,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>752290</v>
+        <v>752282</v>
       </c>
       <c r="R18" t="n">
-        <v>7092999</v>
+        <v>7092952</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2497,12 +2494,18 @@
           <t>2023-09-24</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar. Bild m svampkorg som jämförelse</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2521,10 +2524,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112313603</v>
+        <v>112313661</v>
       </c>
       <c r="B19" t="n">
-        <v>90792</v>
+        <v>90837</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2537,34 +2540,43 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>752279</v>
+        <v>752277</v>
       </c>
       <c r="R19" t="n">
-        <v>7093021</v>
+        <v>7093005</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2597,11 +2609,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2628,10 +2635,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112313577</v>
+        <v>112313689</v>
       </c>
       <c r="B20" t="n">
-        <v>56575</v>
+        <v>90837</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2644,43 +2651,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>752264</v>
+        <v>752279</v>
       </c>
       <c r="R20" t="n">
-        <v>7093108</v>
+        <v>7093000</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2739,10 +2737,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112313652</v>
+        <v>112313672</v>
       </c>
       <c r="B21" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2774,7 +2772,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2788,10 +2786,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>752295</v>
+        <v>752259</v>
       </c>
       <c r="R21" t="n">
-        <v>7092957</v>
+        <v>7093047</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2850,10 +2848,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112313661</v>
+        <v>112313598</v>
       </c>
       <c r="B22" t="n">
-        <v>90823</v>
+        <v>90826</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2862,47 +2860,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>752277</v>
+        <v>752290</v>
       </c>
       <c r="R22" t="n">
-        <v>7093005</v>
+        <v>7092999</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2961,10 +2950,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112313638</v>
+        <v>112313673</v>
       </c>
       <c r="B23" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2996,7 +2985,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3010,10 +2999,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>752284</v>
+        <v>752297</v>
       </c>
       <c r="R23" t="n">
-        <v>7093018</v>
+        <v>7093006</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3075,7 +3064,7 @@
         <v>112313651</v>
       </c>
       <c r="B24" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3183,10 +3172,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112313709</v>
+        <v>112313671</v>
       </c>
       <c r="B25" t="n">
-        <v>90794</v>
+        <v>90837</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3199,26 +3188,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3232,10 +3221,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>752305</v>
+        <v>752274</v>
       </c>
       <c r="R25" t="n">
-        <v>7093005</v>
+        <v>7093145</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3294,10 +3283,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112313643</v>
+        <v>112313678</v>
       </c>
       <c r="B26" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3329,7 +3318,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3343,10 +3332,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>752256</v>
+        <v>752289</v>
       </c>
       <c r="R26" t="n">
-        <v>7093214</v>
+        <v>7092955</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3405,10 +3394,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112313619</v>
+        <v>112313652</v>
       </c>
       <c r="B27" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3440,7 +3429,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3448,18 +3437,16 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>752282</v>
+        <v>752295</v>
       </c>
       <c r="R27" t="n">
-        <v>7092952</v>
+        <v>7092957</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3494,18 +3481,12 @@
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar. Bild m svampkorg som jämförelse</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3524,10 +3505,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112313650</v>
+        <v>112313674</v>
       </c>
       <c r="B28" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3559,7 +3540,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3573,10 +3554,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>752299</v>
+        <v>752277</v>
       </c>
       <c r="R28" t="n">
-        <v>7093008</v>
+        <v>7093024</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3635,10 +3616,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112313678</v>
+        <v>112313709</v>
       </c>
       <c r="B29" t="n">
-        <v>90823</v>
+        <v>90808</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3651,26 +3632,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3684,10 +3665,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>752289</v>
+        <v>752305</v>
       </c>
       <c r="R29" t="n">
-        <v>7092955</v>
+        <v>7093005</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3746,10 +3727,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112313674</v>
+        <v>112313577</v>
       </c>
       <c r="B30" t="n">
-        <v>90823</v>
+        <v>56575</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3762,31 +3743,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3795,10 +3776,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>752277</v>
+        <v>752264</v>
       </c>
       <c r="R30" t="n">
-        <v>7093024</v>
+        <v>7093108</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3857,10 +3838,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112313673</v>
+        <v>112313645</v>
       </c>
       <c r="B31" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3892,7 +3873,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3906,10 +3887,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>752297</v>
+        <v>752264</v>
       </c>
       <c r="R31" t="n">
-        <v>7093006</v>
+        <v>7093137</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3968,10 +3949,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112313689</v>
+        <v>112313690</v>
       </c>
       <c r="B32" t="n">
-        <v>90823</v>
+        <v>88140</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3980,38 +3961,49 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>1593</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>Jul.Schäff.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>752279</v>
+        <v>752297</v>
       </c>
       <c r="R32" t="n">
-        <v>7093000</v>
+        <v>7092955</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4052,6 +4044,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4070,10 +4063,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112313599</v>
+        <v>112313675</v>
       </c>
       <c r="B33" t="n">
-        <v>90812</v>
+        <v>90837</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4082,38 +4075,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>752292</v>
+        <v>752286</v>
       </c>
       <c r="R33" t="n">
-        <v>7092955</v>
+        <v>7093001</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4172,10 +4174,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112313690</v>
+        <v>112313614</v>
       </c>
       <c r="B34" t="n">
-        <v>88126</v>
+        <v>90837</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4184,30 +4186,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1593</v>
+        <v>5966</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4215,18 +4217,16 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>752297</v>
+        <v>752292</v>
       </c>
       <c r="R34" t="n">
-        <v>7092955</v>
+        <v>7092968</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4267,7 +4267,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4286,10 +4285,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112313676</v>
+        <v>112313677</v>
       </c>
       <c r="B35" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4335,10 +4334,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>752287</v>
+        <v>752302</v>
       </c>
       <c r="R35" t="n">
-        <v>7093003</v>
+        <v>7092980</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4397,10 +4396,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112313672</v>
+        <v>112313650</v>
       </c>
       <c r="B36" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4432,7 +4431,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4446,10 +4445,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>752259</v>
+        <v>752299</v>
       </c>
       <c r="R36" t="n">
-        <v>7093047</v>
+        <v>7093008</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4508,10 +4507,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112313677</v>
+        <v>112313707</v>
       </c>
       <c r="B37" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4520,47 +4519,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>752302</v>
+        <v>752268</v>
       </c>
       <c r="R37" t="n">
-        <v>7092980</v>
+        <v>7093171</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4619,10 +4609,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112313708</v>
+        <v>112313640</v>
       </c>
       <c r="B38" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4631,38 +4621,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>752331</v>
+        <v>752332</v>
       </c>
       <c r="R38" t="n">
-        <v>7092930</v>
+        <v>7092935</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4695,6 +4694,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Gamla</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4721,10 +4725,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112313645</v>
+        <v>112313603</v>
       </c>
       <c r="B39" t="n">
-        <v>90823</v>
+        <v>90806</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4737,43 +4741,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>752264</v>
+        <v>752279</v>
       </c>
       <c r="R39" t="n">
-        <v>7093137</v>
+        <v>7093021</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4806,6 +4801,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4832,10 +4832,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112313614</v>
+        <v>112313676</v>
       </c>
       <c r="B40" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>752292</v>
+        <v>752287</v>
       </c>
       <c r="R40" t="n">
-        <v>7092968</v>
+        <v>7093003</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4943,10 +4943,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112313707</v>
+        <v>112313599</v>
       </c>
       <c r="B41" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4959,21 +4959,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>752268</v>
+        <v>752292</v>
       </c>
       <c r="R41" t="n">
-        <v>7093171</v>
+        <v>7092955</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112313675</v>
+        <v>112313643</v>
       </c>
       <c r="B42" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>752286</v>
+        <v>752256</v>
       </c>
       <c r="R42" t="n">
-        <v>7093001</v>
+        <v>7093214</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112313671</v>
+        <v>112313638</v>
       </c>
       <c r="B43" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5205,10 +5205,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>752274</v>
+        <v>752284</v>
       </c>
       <c r="R43" t="n">
-        <v>7093145</v>
+        <v>7093018</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>

--- a/artfynd/A 10371-2023.xlsx
+++ b/artfynd/A 10371-2023.xlsx
@@ -962,10 +962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112027290</v>
+        <v>112027339</v>
       </c>
       <c r="B4" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -974,25 +974,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752268</v>
+        <v>752300</v>
       </c>
       <c r="R4" t="n">
-        <v>7093029</v>
+        <v>7092944</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Rikligt</t>
+          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1069,10 +1069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112027355</v>
+        <v>112027285</v>
       </c>
       <c r="B5" t="n">
-        <v>90814</v>
+        <v>90830</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,25 +1081,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112027285</v>
+        <v>112027301</v>
       </c>
       <c r="B6" t="n">
-        <v>90830</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1187,21 +1187,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752324</v>
+        <v>752330</v>
       </c>
       <c r="R6" t="n">
-        <v>7092941</v>
+        <v>7092949</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112027275</v>
+        <v>112027360</v>
       </c>
       <c r="B7" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1289,21 +1289,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>752296</v>
+        <v>752297</v>
       </c>
       <c r="R7" t="n">
-        <v>7092962</v>
+        <v>7093005</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1349,6 +1349,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1375,7 +1380,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112027339</v>
+        <v>112027354</v>
       </c>
       <c r="B8" t="n">
         <v>90814</v>
@@ -1415,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>752300</v>
+        <v>752295</v>
       </c>
       <c r="R8" t="n">
-        <v>7092944</v>
+        <v>7093002</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1451,11 +1456,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112027366</v>
+        <v>112027290</v>
       </c>
       <c r="B10" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>752248</v>
+        <v>752268</v>
       </c>
       <c r="R10" t="n">
-        <v>7093192</v>
+        <v>7093029</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1660,6 +1660,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1686,10 +1691,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112027371</v>
+        <v>112027322</v>
       </c>
       <c r="B11" t="n">
-        <v>90808</v>
+        <v>90837</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1702,21 +1707,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1726,10 +1731,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>752290</v>
+        <v>752287</v>
       </c>
       <c r="R11" t="n">
-        <v>7092949</v>
+        <v>7093027</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1788,10 +1793,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112027288</v>
+        <v>112027275</v>
       </c>
       <c r="B12" t="n">
-        <v>90826</v>
+        <v>90800</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1800,25 +1805,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1828,10 +1833,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>752282</v>
+        <v>752296</v>
       </c>
       <c r="R12" t="n">
-        <v>7092999</v>
+        <v>7092962</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1890,10 +1895,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112027301</v>
+        <v>112027371</v>
       </c>
       <c r="B13" t="n">
-        <v>90806</v>
+        <v>90808</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1906,21 +1911,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1930,7 +1935,7 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>752330</v>
+        <v>752290</v>
       </c>
       <c r="R13" t="n">
         <v>7092949</v>
@@ -1992,7 +1997,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112027354</v>
+        <v>112027355</v>
       </c>
       <c r="B14" t="n">
         <v>90814</v>
@@ -2032,10 +2037,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>752295</v>
+        <v>752324</v>
       </c>
       <c r="R14" t="n">
-        <v>7093002</v>
+        <v>7092941</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2094,7 +2099,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112027360</v>
+        <v>112027366</v>
       </c>
       <c r="B15" t="n">
         <v>90808</v>
@@ -2134,10 +2139,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>752297</v>
+        <v>752248</v>
       </c>
       <c r="R15" t="n">
-        <v>7093005</v>
+        <v>7093192</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2170,11 +2175,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-10</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ca 10 fruktkroppar</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2201,10 +2201,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112027322</v>
+        <v>112027288</v>
       </c>
       <c r="B16" t="n">
-        <v>90837</v>
+        <v>90826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2213,25 +2213,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>752287</v>
+        <v>752282</v>
       </c>
       <c r="R16" t="n">
-        <v>7093027</v>
+        <v>7092999</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112313708</v>
+        <v>112313709</v>
       </c>
       <c r="B17" t="n">
-        <v>90814</v>
+        <v>90808</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2315,38 +2315,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>752331</v>
+        <v>752305</v>
       </c>
       <c r="R17" t="n">
-        <v>7092930</v>
+        <v>7093005</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2405,10 +2414,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112313619</v>
+        <v>112313690</v>
       </c>
       <c r="B18" t="n">
-        <v>90837</v>
+        <v>88140</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2417,30 +2426,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5966</v>
+        <v>1593</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Lakritsmusseron</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Tricholoma apium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Jul.Schäff.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2456,10 +2465,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>752282</v>
+        <v>752297</v>
       </c>
       <c r="R18" t="n">
-        <v>7092952</v>
+        <v>7092955</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2492,11 +2501,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Stora fruktkroppar. Bild m svampkorg som jämförelse</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2524,10 +2528,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112313661</v>
+        <v>112313708</v>
       </c>
       <c r="B19" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2536,47 +2540,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>752277</v>
+        <v>752331</v>
       </c>
       <c r="R19" t="n">
-        <v>7093005</v>
+        <v>7092930</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2635,7 +2630,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112313689</v>
+        <v>112313677</v>
       </c>
       <c r="B20" t="n">
         <v>90837</v>
@@ -2668,17 +2663,26 @@
           <t>(Schaeff.) Quél.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>752279</v>
+        <v>752302</v>
       </c>
       <c r="R20" t="n">
-        <v>7093000</v>
+        <v>7092980</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2737,7 +2741,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112313672</v>
+        <v>112313671</v>
       </c>
       <c r="B21" t="n">
         <v>90837</v>
@@ -2786,10 +2790,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>752259</v>
+        <v>752274</v>
       </c>
       <c r="R21" t="n">
-        <v>7093047</v>
+        <v>7093145</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2848,10 +2852,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112313598</v>
+        <v>112313638</v>
       </c>
       <c r="B22" t="n">
-        <v>90826</v>
+        <v>90837</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2860,38 +2864,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>752290</v>
+        <v>752284</v>
       </c>
       <c r="R22" t="n">
-        <v>7092999</v>
+        <v>7093018</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2950,7 +2963,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112313673</v>
+        <v>112313676</v>
       </c>
       <c r="B23" t="n">
         <v>90837</v>
@@ -2999,10 +3012,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>752297</v>
+        <v>752287</v>
       </c>
       <c r="R23" t="n">
-        <v>7093006</v>
+        <v>7093003</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3061,10 +3074,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112313651</v>
+        <v>112313707</v>
       </c>
       <c r="B24" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3073,47 +3086,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>752274</v>
+        <v>752268</v>
       </c>
       <c r="R24" t="n">
-        <v>7092986</v>
+        <v>7093171</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3172,7 +3176,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112313671</v>
+        <v>112313640</v>
       </c>
       <c r="B25" t="n">
         <v>90837</v>
@@ -3207,7 +3211,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3221,10 +3225,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>752274</v>
+        <v>752332</v>
       </c>
       <c r="R25" t="n">
-        <v>7093145</v>
+        <v>7092935</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3257,6 +3261,11 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Gamla</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3283,7 +3292,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112313678</v>
+        <v>112313643</v>
       </c>
       <c r="B26" t="n">
         <v>90837</v>
@@ -3318,7 +3327,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3332,10 +3341,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>752289</v>
+        <v>752256</v>
       </c>
       <c r="R26" t="n">
-        <v>7092955</v>
+        <v>7093214</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3394,7 +3403,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112313652</v>
+        <v>112313651</v>
       </c>
       <c r="B27" t="n">
         <v>90837</v>
@@ -3443,10 +3452,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>752295</v>
+        <v>752274</v>
       </c>
       <c r="R27" t="n">
-        <v>7092957</v>
+        <v>7092986</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3505,7 +3514,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112313674</v>
+        <v>112313672</v>
       </c>
       <c r="B28" t="n">
         <v>90837</v>
@@ -3554,10 +3563,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>752277</v>
+        <v>752259</v>
       </c>
       <c r="R28" t="n">
-        <v>7093024</v>
+        <v>7093047</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3616,10 +3625,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112313709</v>
+        <v>112313673</v>
       </c>
       <c r="B29" t="n">
-        <v>90808</v>
+        <v>90837</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3632,26 +3641,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3665,10 +3674,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>752305</v>
+        <v>752297</v>
       </c>
       <c r="R29" t="n">
-        <v>7093005</v>
+        <v>7093006</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3727,10 +3736,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112313577</v>
+        <v>112313650</v>
       </c>
       <c r="B30" t="n">
-        <v>56575</v>
+        <v>90837</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3743,31 +3752,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3776,10 +3785,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>752264</v>
+        <v>752299</v>
       </c>
       <c r="R30" t="n">
-        <v>7093108</v>
+        <v>7093008</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3838,7 +3847,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112313645</v>
+        <v>112313652</v>
       </c>
       <c r="B31" t="n">
         <v>90837</v>
@@ -3873,7 +3882,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3887,10 +3896,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>752264</v>
+        <v>752295</v>
       </c>
       <c r="R31" t="n">
-        <v>7093137</v>
+        <v>7092957</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3949,10 +3958,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112313690</v>
+        <v>112313614</v>
       </c>
       <c r="B32" t="n">
-        <v>88140</v>
+        <v>90837</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3961,30 +3970,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1593</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lakritsmusseron</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tricholoma apium</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Jul.Schäff.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3992,18 +4001,16 @@
           <t>fruktkroppar</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>752297</v>
+        <v>752292</v>
       </c>
       <c r="R32" t="n">
-        <v>7092955</v>
+        <v>7092968</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4044,7 +4051,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4063,7 +4069,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112313675</v>
+        <v>112313619</v>
       </c>
       <c r="B33" t="n">
         <v>90837</v>
@@ -4098,7 +4104,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4106,16 +4112,18 @@
           <t>fruktkroppar</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>752286</v>
+        <v>752282</v>
       </c>
       <c r="R33" t="n">
-        <v>7093001</v>
+        <v>7092952</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4150,12 +4158,18 @@
           <t>2023-09-24</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Stora fruktkroppar. Bild m svampkorg som jämförelse</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4174,7 +4188,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112313614</v>
+        <v>112313645</v>
       </c>
       <c r="B34" t="n">
         <v>90837</v>
@@ -4209,7 +4223,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4223,10 +4237,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>752292</v>
+        <v>752264</v>
       </c>
       <c r="R34" t="n">
-        <v>7092968</v>
+        <v>7093137</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4285,7 +4299,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112313677</v>
+        <v>112313689</v>
       </c>
       <c r="B35" t="n">
         <v>90837</v>
@@ -4318,26 +4332,17 @@
           <t>(Schaeff.) Quél.</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>752302</v>
+        <v>752279</v>
       </c>
       <c r="R35" t="n">
-        <v>7092980</v>
+        <v>7093000</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4396,10 +4401,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112313650</v>
+        <v>112313599</v>
       </c>
       <c r="B36" t="n">
-        <v>90837</v>
+        <v>90826</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4408,47 +4413,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>752299</v>
+        <v>752292</v>
       </c>
       <c r="R36" t="n">
-        <v>7093008</v>
+        <v>7092955</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4507,10 +4503,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112313707</v>
+        <v>112313675</v>
       </c>
       <c r="B37" t="n">
-        <v>90814</v>
+        <v>90837</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4519,38 +4515,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>752268</v>
+        <v>752286</v>
       </c>
       <c r="R37" t="n">
-        <v>7093171</v>
+        <v>7093001</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4609,10 +4614,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112313640</v>
+        <v>112313598</v>
       </c>
       <c r="B38" t="n">
-        <v>90837</v>
+        <v>90826</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4621,47 +4626,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>752332</v>
+        <v>752290</v>
       </c>
       <c r="R38" t="n">
-        <v>7092935</v>
+        <v>7092999</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4694,11 +4690,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Gamla</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4725,10 +4716,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112313603</v>
+        <v>112313661</v>
       </c>
       <c r="B39" t="n">
-        <v>90806</v>
+        <v>90837</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4741,34 +4732,43 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>752279</v>
+        <v>752277</v>
       </c>
       <c r="R39" t="n">
-        <v>7093021</v>
+        <v>7093005</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4801,11 +4801,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4832,10 +4827,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112313676</v>
+        <v>112313577</v>
       </c>
       <c r="B40" t="n">
-        <v>90837</v>
+        <v>56575</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4848,31 +4843,31 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4881,10 +4876,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>752287</v>
+        <v>752264</v>
       </c>
       <c r="R40" t="n">
-        <v>7093003</v>
+        <v>7093108</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4943,10 +4938,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112313599</v>
+        <v>112313678</v>
       </c>
       <c r="B41" t="n">
-        <v>90826</v>
+        <v>90837</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4955,35 +4950,44 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>752292</v>
+        <v>752289</v>
       </c>
       <c r="R41" t="n">
         <v>7092955</v>
@@ -5045,7 +5049,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112313643</v>
+        <v>112313674</v>
       </c>
       <c r="B42" t="n">
         <v>90837</v>
@@ -5080,7 +5084,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5094,10 +5098,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>752256</v>
+        <v>752277</v>
       </c>
       <c r="R42" t="n">
-        <v>7093214</v>
+        <v>7093024</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5156,10 +5160,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112313638</v>
+        <v>112313603</v>
       </c>
       <c r="B43" t="n">
-        <v>90837</v>
+        <v>90806</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5172,43 +5176,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5966</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>752284</v>
+        <v>752279</v>
       </c>
       <c r="R43" t="n">
-        <v>7093018</v>
+        <v>7093021</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5241,6 +5236,11 @@
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
         </is>
       </c>
       <c r="AD43" t="b">
